--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>ID #</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Severity [P0-P5]</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -49,41 +46,224 @@
     <t>P4</t>
   </si>
   <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Jasraj</t>
+  </si>
+  <si>
+    <t>after picking up many coins the formatting of the coin icons in the top left goes into a weird state</t>
+  </si>
+  <si>
+    <t>after picking up each coin the coin icons should be formatted correctly</t>
+  </si>
+  <si>
+    <t>the formatting becomes weird after picking up 16 coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pick up 16 coins </t>
+  </si>
+  <si>
+    <t>Wont-fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin counter in header of game not resetting on death </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after dying the coin counter should be reset on death </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coin counter persists after death </t>
+  </si>
+  <si>
+    <t>pick up coins and then die</t>
+  </si>
+  <si>
+    <t>CP tester</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>After dying player can still move</t>
+  </si>
+  <si>
+    <t>player should not be able to move after dying</t>
+  </si>
+  <si>
+    <t>player can still move</t>
+  </si>
+  <si>
+    <t>die and click movement buttons</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>When moving diagonally and let go of one key to move horizontally or vertically, animations stop working</t>
+  </si>
+  <si>
+    <t>animation should continue as long as player is moving</t>
+  </si>
+  <si>
+    <t>animation stops</t>
+  </si>
+  <si>
+    <t>hold D, then hold W on top, then release W</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>When playing again after death, walls do not spawn in</t>
+  </si>
+  <si>
+    <t>wall should be there regardless of death/replay</t>
+  </si>
+  <si>
+    <t>wall does not exist</t>
+  </si>
+  <si>
+    <t>die, let screen fade, click play again</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>when loading game from save file, a dart projectile incorrectly spawns instead of card/ball.</t>
+  </si>
+  <si>
+    <t>Dart should only spawn if it was dart upon saving</t>
+  </si>
+  <si>
+    <t>ball or card saved loads back as dart</t>
+  </si>
+  <si>
+    <t>while ball/card is in mid air, exit game, reload.</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>even after dying, clicking play resumes from death point</t>
+  </si>
+  <si>
+    <t>after dying should restart on wave 1</t>
+  </si>
+  <si>
+    <t>wave persists after death</t>
+  </si>
+  <si>
+    <t>die on wave &gt; 1</t>
+  </si>
+  <si>
+    <t>when in full screen aiming for mouse coordinates are incorrect</t>
+  </si>
+  <si>
+    <t>mouse aiming should be accurate</t>
+  </si>
+  <si>
+    <t>mouse coordinates slightly off</t>
+  </si>
+  <si>
+    <t>go in full screen mode and try to aim</t>
+  </si>
+  <si>
+    <t>when in full screen you cant click on tutorial and start buttons</t>
+  </si>
+  <si>
+    <t>clicking on tutorial or start does expected action</t>
+  </si>
+  <si>
+    <t>cant click on tutorial or start buttons</t>
+  </si>
+  <si>
+    <t>go in full screen mode and try to click on them</t>
+  </si>
+  <si>
+    <t>queens sometimes don't track closest melee enemy</t>
+  </si>
+  <si>
+    <t>queen tracks and heals closest melee enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">queen sometimes tracks and heals newest added melee entity </t>
+  </si>
+  <si>
+    <t>play on a wave that has queen enemy</t>
+  </si>
+  <si>
+    <t>when bird is far away from player it wanders off randomly</t>
+  </si>
+  <si>
+    <t>bird should drift towards player</t>
+  </si>
+  <si>
+    <t>bird flies into walls</t>
+  </si>
+  <si>
+    <t>play on a wave that has birds</t>
+  </si>
+  <si>
+    <t>roulette balls bounce at the wrong angle</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>When player dies while pressed against the left side of a wall, the game segfaults</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Jasraj</t>
-  </si>
-  <si>
-    <t>after picking up many coins the formatting of the coin icons in the top left goes into a weird state</t>
-  </si>
-  <si>
-    <t>after picking up each coin the coin icons should be formatted correctly</t>
-  </si>
-  <si>
-    <t>the formatting becomes weird after picking up 16 coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pick up 16 coins </t>
-  </si>
-  <si>
-    <t xml:space="preserve">coin counter in header of game not resetting on death </t>
-  </si>
-  <si>
-    <t xml:space="preserve">after dying the coin counter should be reset on death </t>
-  </si>
-  <si>
-    <t xml:space="preserve">coin counter persists after death </t>
-  </si>
-  <si>
-    <t>pick up coins and then die</t>
+    <t>Ninja star does not hit boids</t>
+  </si>
+  <si>
+    <t>Ninja star hits and damages boids</t>
+  </si>
+  <si>
+    <t>Attack boids with a ninja star</t>
+  </si>
+  <si>
+    <t>Need to add types to solids, when reloading from save table and slot machine turns to walls</t>
+  </si>
+  <si>
+    <t>Slots and tables reload as slots and tables</t>
+  </si>
+  <si>
+    <t>slots and tables become walls</t>
+  </si>
+  <si>
+    <t>exit and reload on wave 1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Upon save with enemies present on screen, and reload game, enemies will disappear. Softlock round due to ghost entity. Subsequent game save will corrupt the save file with null positions.</t>
+  </si>
+  <si>
+    <t>Enemies dont despawn or become ghost upon save/load</t>
+  </si>
+  <si>
+    <t>Enemies despawn or become ghost upon save/load</t>
+  </si>
+  <si>
+    <t>save/load with enemies present on screen and check save file</t>
+  </si>
+  <si>
+    <t>P0 = crash bug, P1 = game stopping but not crash, P2 = not working as expected, P3 = annoying, P4 = nice to have, P5 = future release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-mmm"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -107,8 +287,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF2D3B45"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +311,14 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -138,11 +334,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -156,6 +360,18 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,14 +654,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="35.67"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="3" max="3" width="11.89"/>
     <col customWidth="1" min="4" max="4" width="12.67"/>
     <col customWidth="1" min="5" max="5" width="13.33"/>
-    <col customWidth="1" min="6" max="6" width="11.67"/>
-    <col customWidth="1" min="7" max="7" width="21.56"/>
-    <col customWidth="1" min="8" max="8" width="28.11"/>
-    <col customWidth="1" min="9" max="9" width="10.89"/>
-    <col customWidth="1" min="10" max="10" width="14.78"/>
+    <col customWidth="1" min="6" max="6" width="15.33"/>
+    <col customWidth="1" min="7" max="7" width="76.67"/>
+    <col customWidth="1" min="8" max="8" width="51.56"/>
+    <col customWidth="1" min="9" max="9" width="46.22"/>
+    <col customWidth="1" min="10" max="10" width="45.22"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,23 +677,21 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -488,28 +702,28 @@
         <v>45578.0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -520,16 +734,16 @@
         <v>45578.0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>18</v>
@@ -544,45 +758,472 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45581.0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45597.0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45597.0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45599.0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45599.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45599.0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45599.0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45599.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45599.0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45601.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45604.0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45615.0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45615.0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45615.0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3 D2:D3">
+  <conditionalFormatting sqref="B2:B12 D2:D17 B15:B17">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH(("Critical"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3 D2:D3">
+  <conditionalFormatting sqref="B2:B12 D2:D17 B15:B17">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH(("High"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3 D2:D3">
+  <conditionalFormatting sqref="B2:B12 D2:D17 B15:B17">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3 D2:D3">
+  <conditionalFormatting sqref="B2:B12 D2:D17 B15:B17">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH(("Low"),(B2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH(("Closed"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E3">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH(("Open"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C3 F2:F3">
-      <formula1>"Andy,Jasraj,John,Noel,Sunny"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E17">
       <formula1>"Open,In Progress,Resolved,Wont-fix"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C17 F2:F17">
+      <formula1>"Andy,Jasraj,John,Noel,Sunny,CP tester"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D17">
       <formula1>"P0,P1,P2,P3,P4,P5"</formula1>
     </dataValidation>
   </dataValidations>
